--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,73 +58,73 @@
     <t>panic</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
@@ -682,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9152542372881356</v>
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.8888888888888888</v>
@@ -864,7 +864,7 @@
         <v>144</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.8888888888888888</v>
@@ -914,7 +914,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.8709677419354839</v>
@@ -964,7 +964,7 @@
         <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>0.8582677165354331</v>
@@ -1014,7 +1014,7 @@
         <v>447</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.8461538461538461</v>
@@ -1043,28 +1043,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.08441558441558442</v>
+        <v>0.007345225603357817</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="E9">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>141</v>
+        <v>1892</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.8272727272727273</v>
@@ -1089,32 +1089,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.007345225603357817</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>251</v>
-      </c>
-      <c r="E10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1892</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -1140,7 +1116,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.8</v>
@@ -1166,7 +1142,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -1192,7 +1168,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.740506329113924</v>
@@ -1218,7 +1194,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.7192982456140351</v>
@@ -1244,7 +1220,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.7142857142857143</v>
@@ -1270,111 +1246,111 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6724137931034483</v>
+        <v>0.6633663366336634</v>
       </c>
       <c r="L16">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>0.6593406593406593</v>
+      </c>
+      <c r="L17">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>63</v>
+      </c>
+      <c r="N17">
+        <v>0.95</v>
+      </c>
+      <c r="O17">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>31</v>
-      </c>
-      <c r="K17">
-        <v>0.6633663366336634</v>
-      </c>
-      <c r="L17">
-        <v>67</v>
-      </c>
-      <c r="M17">
-        <v>72</v>
-      </c>
-      <c r="N17">
-        <v>0.93</v>
-      </c>
-      <c r="O17">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6593406593406593</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="N19">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.6470588235294118</v>
@@ -1400,7 +1376,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.6170212765957447</v>
@@ -1426,7 +1402,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.6142857142857143</v>
@@ -1452,28 +1428,28 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5688073394495413</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L23">
         <v>186</v>
       </c>
       <c r="M23">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -2622,7 +2598,7 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K68">
         <v>0.1113198684828558</v>
